--- a/Frontend/Localized Strings-Form1.xlsx
+++ b/Frontend/Localized Strings-Form1.xlsx
@@ -7331,7 +7331,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Frontend/Localized Strings-Form1.xlsx
+++ b/Frontend/Localized Strings-Form1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="214" documentId="8_{63B1FF2D-BF60-476D-AF57-4FDE17269D2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{25CC605B-E21F-426B-AC01-B12AD91685A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABC2DD07-3A85-4A65-872C-28279EB9CF19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABC2DD07-3A85-4A65-872C-28279EB9CF19}"/>
   </bookViews>
   <sheets>
     <sheet name="Default" sheetId="5" r:id="rId1"/>

--- a/Frontend/Localized Strings-Form1.xlsx
+++ b/Frontend/Localized Strings-Form1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
